--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CD/10/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CD/10/seed5/result_data_RandomForest.xlsx
@@ -573,7 +573,7 @@
         <v>-11.02</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.843499999999988</v>
+        <v>-8.615999999999987</v>
       </c>
       <c r="E8" t="n">
         <v>12.94</v>
@@ -638,10 +638,10 @@
         <v>5.38</v>
       </c>
       <c r="C12" t="n">
-        <v>-14.75400000000001</v>
+        <v>-14.62430000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>-8.0183</v>
+        <v>-8.092600000000003</v>
       </c>
       <c r="E12" t="n">
         <v>13.01</v>
@@ -675,7 +675,7 @@
         <v>-11.89</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.771300000000002</v>
+        <v>-8.707199999999998</v>
       </c>
       <c r="E14" t="n">
         <v>12.97</v>
@@ -811,7 +811,7 @@
         <v>-10.65</v>
       </c>
       <c r="D22" t="n">
-        <v>-7.834900000000001</v>
+        <v>-7.856099999999997</v>
       </c>
       <c r="E22" t="n">
         <v>12.2</v>
